--- a/downloads/teamScores/2017autumn_team_score_list.xlsx
+++ b/downloads/teamScores/2017autumn_team_score_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>团队id</t>
   </si>
@@ -25,37 +25,7 @@
     <t>分数</t>
   </si>
   <si>
-    <t>P0hdb84q</t>
-  </si>
-  <si>
-    <t>Uranus</t>
-  </si>
-  <si>
-    <t>H31QoiL8</t>
-  </si>
-  <si>
-    <t>KUK52wzG</t>
-  </si>
-  <si>
-    <t>PbRpz4MP</t>
-  </si>
-  <si>
-    <t>rkFBPV40</t>
-  </si>
-  <si>
-    <t>UleUZeEN</t>
-  </si>
-  <si>
-    <t>1ZZn9wtp</t>
-  </si>
-  <si>
-    <t>fK3nYtWQ</t>
-  </si>
-  <si>
-    <t>89Po4iJF</t>
-  </si>
-  <si>
-    <t>cXti4mQC</t>
+    <t>uranus</t>
   </si>
 </sst>
 </file>
@@ -391,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,116 +391,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
